--- a/biology/Médecine/Centre_hospitalier_intercommunal_Albertville-Moûtiers/Centre_hospitalier_intercommunal_Albertville-Moûtiers.xlsx
+++ b/biology/Médecine/Centre_hospitalier_intercommunal_Albertville-Moûtiers/Centre_hospitalier_intercommunal_Albertville-Moûtiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_intercommunal_Albertville-Mo%C3%BBtiers</t>
+          <t>Centre_hospitalier_intercommunal_Albertville-Moûtiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le CHAM est le Centre hospitalier intercommunal Albertville-Moûtiers.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_intercommunal_Albertville-Mo%C3%BBtiers</t>
+          <t>Centre_hospitalier_intercommunal_Albertville-Moûtiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le CHAM, implanté sur 2 sites principaux distants de 28 km dispose de 580 lits dont 290 actifs ; le SROS lui réserve la place de 2e pôle hospitalier du territoire.
 Un projet de reconstruction permettant de regrouper tous les lits sur un seul site est éligible au plan hôpital 2012 (annonce faite par le Ministre de la Santé en août 2006) :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_intercommunal_Albertville-Mo%C3%BBtiers</t>
+          <t>Centre_hospitalier_intercommunal_Albertville-Moûtiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la Savoie   Portail de la médecine                    </t>
